--- a/VerveStacks_EST/SysSettings.xlsx
+++ b/VerveStacks_EST/SysSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_EST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\PycharmProjects\ee-times\VerveStacks_EST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E9BC14-13EE-485E-AE75-608FA74E66C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A0805A-B2B9-474F-8868-D0E78427A19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="277">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -866,6 +866,9 @@
   </si>
   <si>
     <t>onshore wind electricity generation in cluster -- 10</t>
+  </si>
+  <si>
+    <t>msy7_2050</t>
   </si>
 </sst>
 </file>
@@ -873,21 +876,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="15">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_(&quot;£&quot;* #,##0.00_);_(&quot;£&quot;* \(#,##0.00\);_(&quot;£&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_ &quot;kr&quot;\ * #,##0_ ;_ &quot;kr&quot;\ * \-#,##0_ ;_ &quot;kr&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="_ &quot;kr&quot;\ * #,##0.00_ ;_ &quot;kr&quot;\ * \-#,##0.00_ ;_ &quot;kr&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="[&gt;0.5]#,##0;[&lt;-0.5]\-#,##0;\-"/>
-    <numFmt numFmtId="170" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* &quot;-&quot;??_-"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0\ &quot;F&quot;_-;\-* #,##0\ &quot;F&quot;_-;_-* &quot;-&quot;\ &quot;F&quot;_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="_-* #,##0\ _F_-;\-* #,##0\ _F_-;_-* &quot;-&quot;\ _F_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="_-* #,##0.00\ &quot;F&quot;_-;\-* #,##0.00\ &quot;F&quot;_-;_-* &quot;-&quot;??\ &quot;F&quot;_-;_-@_-"/>
-    <numFmt numFmtId="174" formatCode="_-* #,##0.00\ _F_-;\-* #,##0.00\ _F_-;_-* &quot;-&quot;??\ _F_-;_-@_-"/>
-    <numFmt numFmtId="175" formatCode="#,##0.0;\-#,##0.0;&quot;-&quot;"/>
-    <numFmt numFmtId="176" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_(&quot;£&quot;* #,##0.00_);_(&quot;£&quot;* \(#,##0.00\);_(&quot;£&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_ &quot;kr&quot;\ * #,##0_ ;_ &quot;kr&quot;\ * \-#,##0_ ;_ &quot;kr&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="169" formatCode="_ &quot;kr&quot;\ * #,##0.00_ ;_ &quot;kr&quot;\ * \-#,##0.00_ ;_ &quot;kr&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="170" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="[&gt;0.5]#,##0;[&lt;-0.5]\-#,##0;\-"/>
+    <numFmt numFmtId="172" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* &quot;-&quot;??_-"/>
+    <numFmt numFmtId="173" formatCode="_-* #,##0\ &quot;F&quot;_-;\-* #,##0\ &quot;F&quot;_-;_-* &quot;-&quot;\ &quot;F&quot;_-;_-@_-"/>
+    <numFmt numFmtId="174" formatCode="_-* #,##0\ _F_-;\-* #,##0\ _F_-;_-* &quot;-&quot;\ _F_-;_-@_-"/>
+    <numFmt numFmtId="175" formatCode="_-* #,##0.00\ &quot;F&quot;_-;\-* #,##0.00\ &quot;F&quot;_-;_-* &quot;-&quot;??\ &quot;F&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ _F_-;\-* #,##0.00\ _F_-;_-* &quot;-&quot;??\ _F_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="#,##0.0;\-#,##0.0;&quot;-&quot;"/>
+    <numFmt numFmtId="178" formatCode="\Te\x\t"/>
   </numFmts>
   <fonts count="59">
     <font>
@@ -1859,51 +1862,51 @@
     <xf numFmtId="0" fontId="44" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="1" fontId="1" fillId="41" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="1" fontId="1" fillId="42" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="43" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="43" borderId="0"/>
@@ -1929,68 +1932,68 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="11" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2023,10 +2026,10 @@
     <xf numFmtId="0" fontId="10" fillId="45" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="36" fillId="0" borderId="0">
+    <xf numFmtId="171" fontId="36" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="36" fillId="0" borderId="0">
+    <xf numFmtId="171" fontId="36" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2055,10 +2058,10 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="174" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="173" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="47" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
@@ -2218,8 +2221,8 @@
     <xf numFmtId="0" fontId="11" fillId="17" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="20" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2237,10 +2240,10 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="35" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="35" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="38" fillId="36" borderId="6"/>
@@ -2327,7 +2330,7 @@
     <xf numFmtId="0" fontId="28" fillId="46" borderId="12">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="4" fontId="38" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
@@ -2342,10 +2345,10 @@
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="431"/>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="22" xfId="432" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" xfId="432" applyBorder="1"/>
@@ -3218,15 +3221,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.06640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.9296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.53125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
@@ -3290,19 +3293,19 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.06640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.06640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18" ht="17.649999999999999" thickBot="1">
+    <row r="3" spans="2:18" ht="18" thickBot="1">
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
@@ -3321,7 +3324,7 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="2:18" ht="15" thickTop="1" thickBot="1">
+    <row r="4" spans="2:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
@@ -4199,17 +4202,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A39735C-B147-4873-BE33-BF7570891F36}">
   <dimension ref="B3:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.86328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.3984375" style="6"/>
-    <col min="4" max="4" width="14.1328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.86328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.86328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.3984375" style="6"/>
+    <col min="1" max="1" width="9.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="6"/>
+    <col min="4" max="4" width="14.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7">
@@ -4229,7 +4234,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="6" t="s">
-        <v>42</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="2:7">
@@ -4240,7 +4245,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="14.25">
+    <row r="12" spans="2:7" ht="15">
       <c r="B12" s="7" t="s">
         <v>42</v>
       </c>
@@ -4260,7 +4265,7 @@
         <v>msy5_2050</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="14.25">
+    <row r="13" spans="2:7" ht="15">
       <c r="B13" s="9">
         <v>1</v>
       </c>
@@ -4268,7 +4273,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="14.25">
+    <row r="14" spans="2:7" ht="15">
       <c r="B14" s="9">
         <v>5</v>
       </c>
@@ -4288,7 +4293,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="14.25">
+    <row r="15" spans="2:7" ht="15">
       <c r="B15" s="9">
         <v>5</v>
       </c>
@@ -4308,7 +4313,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="14.25">
+    <row r="16" spans="2:7" ht="15">
       <c r="B16" s="9">
         <v>10</v>
       </c>
@@ -4328,7 +4333,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="14.25">
+    <row r="17" spans="2:7" ht="15">
       <c r="B17" s="9">
         <v>10</v>
       </c>
@@ -4348,7 +4353,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="14.25">
+    <row r="18" spans="2:7" ht="15">
       <c r="B18" s="9">
         <v>10</v>
       </c>
@@ -4368,7 +4373,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="14.25">
+    <row r="19" spans="2:7" ht="15">
       <c r="B19" s="9">
         <v>10</v>
       </c>
@@ -4384,7 +4389,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="14.25">
+    <row r="20" spans="2:7" ht="15">
       <c r="B20" s="9">
         <v>10</v>
       </c>
@@ -4396,7 +4401,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="14.25">
+    <row r="21" spans="2:7" ht="15">
       <c r="B21" s="9">
         <v>10</v>
       </c>
@@ -4404,7 +4409,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="14.25">
+    <row r="22" spans="2:7" ht="15">
       <c r="B22" s="9">
         <v>10</v>
       </c>
@@ -4412,7 +4417,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="14.25">
+    <row r="23" spans="2:7" ht="15">
       <c r="B23" s="9">
         <v>10</v>
       </c>
@@ -4420,7 +4425,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="14.25">
+    <row r="24" spans="2:7" ht="15">
       <c r="B24" s="9">
         <v>10</v>
       </c>
@@ -4428,46 +4433,46 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="14.25">
+    <row r="25" spans="2:7" ht="15">
       <c r="B25" s="9"/>
       <c r="D25" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="14.25">
+    <row r="26" spans="2:7" ht="15">
       <c r="B26" s="9"/>
       <c r="D26" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="14.25">
+    <row r="27" spans="2:7" ht="15">
       <c r="B27" s="9"/>
       <c r="D27" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="14.25">
+    <row r="28" spans="2:7" ht="15">
       <c r="B28" s="9"/>
       <c r="D28" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="14.25">
+    <row r="29" spans="2:7" ht="15">
       <c r="B29" s="9"/>
       <c r="D29" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="14.25">
+    <row r="30" spans="2:7" ht="15">
       <c r="B30" s="9"/>
     </row>
-    <row r="31" spans="2:7" ht="14.25">
+    <row r="31" spans="2:7" ht="15">
       <c r="B31" s="9"/>
     </row>
-    <row r="32" spans="2:7" ht="14.25">
+    <row r="32" spans="2:7" ht="15">
       <c r="B32" s="9"/>
     </row>
-    <row r="33" spans="2:2" ht="14.25">
+    <row r="33" spans="2:2" ht="15">
       <c r="B33" s="9"/>
     </row>
   </sheetData>
@@ -4480,25 +4485,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A64C410-895F-4040-A7AB-3F7211AA7FBD}">
   <dimension ref="B1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:F11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" style="11"/>
-    <col min="2" max="2" width="8.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.46484375" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.46484375" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.9296875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.9296875" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.1328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.53125" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.73046875" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.3984375" style="11"/>
+    <col min="1" max="1" width="11.42578125" style="11"/>
+    <col min="2" max="2" width="8.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="12.75">
@@ -4725,7 +4730,7 @@
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
     </row>
-    <row r="21" spans="2:14" ht="14.25">
+    <row r="21" spans="2:14" ht="15">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -4740,7 +4745,7 @@
       <c r="M21"/>
       <c r="N21"/>
     </row>
-    <row r="22" spans="2:14" ht="14.25">
+    <row r="22" spans="2:14" ht="15">
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
@@ -4755,7 +4760,7 @@
       <c r="M22"/>
       <c r="N22"/>
     </row>
-    <row r="23" spans="2:14" ht="14.25">
+    <row r="23" spans="2:14" ht="15">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
@@ -4770,7 +4775,7 @@
       <c r="M23"/>
       <c r="N23"/>
     </row>
-    <row r="24" spans="2:14" ht="14.25">
+    <row r="24" spans="2:14" ht="15">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
@@ -4785,7 +4790,7 @@
       <c r="M24"/>
       <c r="N24"/>
     </row>
-    <row r="25" spans="2:14" ht="14.25">
+    <row r="25" spans="2:14" ht="15">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -4800,7 +4805,7 @@
       <c r="M25"/>
       <c r="N25"/>
     </row>
-    <row r="26" spans="2:14" ht="14.25">
+    <row r="26" spans="2:14" ht="15">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -4815,7 +4820,7 @@
       <c r="M26"/>
       <c r="N26"/>
     </row>
-    <row r="27" spans="2:14" ht="14.25">
+    <row r="27" spans="2:14" ht="15">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -4830,7 +4835,7 @@
       <c r="M27"/>
       <c r="N27"/>
     </row>
-    <row r="28" spans="2:14" ht="14.25">
+    <row r="28" spans="2:14" ht="15">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
@@ -4845,7 +4850,7 @@
       <c r="M28"/>
       <c r="N28"/>
     </row>
-    <row r="29" spans="2:14" ht="14.25">
+    <row r="29" spans="2:14" ht="15">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
@@ -4860,7 +4865,7 @@
       <c r="M29"/>
       <c r="N29"/>
     </row>
-    <row r="30" spans="2:14" ht="14.25">
+    <row r="30" spans="2:14" ht="15">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -4875,7 +4880,7 @@
       <c r="M30"/>
       <c r="N30"/>
     </row>
-    <row r="31" spans="2:14" ht="14.25">
+    <row r="31" spans="2:14" ht="15">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -4890,7 +4895,7 @@
       <c r="M31"/>
       <c r="N31"/>
     </row>
-    <row r="32" spans="2:14" ht="14.25">
+    <row r="32" spans="2:14" ht="15">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
@@ -4905,7 +4910,7 @@
       <c r="M32"/>
       <c r="N32"/>
     </row>
-    <row r="33" spans="2:14" ht="14.25">
+    <row r="33" spans="2:14" ht="15">
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
@@ -4920,7 +4925,7 @@
       <c r="M33"/>
       <c r="N33"/>
     </row>
-    <row r="34" spans="2:14" ht="14.25">
+    <row r="34" spans="2:14" ht="15">
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
@@ -4935,7 +4940,7 @@
       <c r="M34"/>
       <c r="N34"/>
     </row>
-    <row r="35" spans="2:14" ht="14.25">
+    <row r="35" spans="2:14" ht="15">
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
@@ -4950,7 +4955,7 @@
       <c r="M35"/>
       <c r="N35"/>
     </row>
-    <row r="36" spans="2:14" ht="14.25">
+    <row r="36" spans="2:14" ht="15">
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
@@ -4965,7 +4970,7 @@
       <c r="M36"/>
       <c r="N36"/>
     </row>
-    <row r="37" spans="2:14" ht="14.25">
+    <row r="37" spans="2:14" ht="15">
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
@@ -4980,7 +4985,7 @@
       <c r="M37"/>
       <c r="N37"/>
     </row>
-    <row r="38" spans="2:14" ht="14.25">
+    <row r="38" spans="2:14" ht="15">
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
@@ -4995,7 +5000,7 @@
       <c r="M38"/>
       <c r="N38"/>
     </row>
-    <row r="39" spans="2:14" ht="14.25">
+    <row r="39" spans="2:14" ht="15">
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
@@ -5010,7 +5015,7 @@
       <c r="M39"/>
       <c r="N39"/>
     </row>
-    <row r="40" spans="2:14" ht="14.25">
+    <row r="40" spans="2:14" ht="15">
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
@@ -5025,7 +5030,7 @@
       <c r="M40"/>
       <c r="N40"/>
     </row>
-    <row r="41" spans="2:14" ht="14.25">
+    <row r="41" spans="2:14" ht="15">
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
@@ -5040,7 +5045,7 @@
       <c r="M41"/>
       <c r="N41"/>
     </row>
-    <row r="42" spans="2:14" ht="14.25">
+    <row r="42" spans="2:14" ht="15">
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
@@ -5070,25 +5075,25 @@
       <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" style="11"/>
-    <col min="2" max="2" width="12.73046875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.3984375" style="11"/>
-    <col min="5" max="5" width="13.53125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.9296875" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.3984375" style="11"/>
-    <col min="12" max="12" width="17.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.73046875" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.3984375" style="11"/>
+    <col min="1" max="1" width="11.42578125" style="11"/>
+    <col min="2" max="2" width="12.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="11"/>
+    <col min="5" max="5" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="11"/>
+    <col min="12" max="12" width="17.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="17.649999999999999" thickBot="1">
+    <row r="2" spans="1:14" ht="18" thickBot="1">
       <c r="A2" s="13"/>
       <c r="B2" s="20" t="s">
         <v>69</v>
@@ -5102,7 +5107,7 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" ht="15" thickTop="1" thickBot="1">
+    <row r="3" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="13"/>
       <c r="B3" s="4" t="s">
         <v>71</v>
@@ -5135,7 +5140,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="13.15">
+    <row r="4" spans="1:14" ht="13.5">
       <c r="A4" s="13"/>
       <c r="B4" s="19" t="s">
         <v>135</v>
@@ -5160,7 +5165,7 @@
         <v>1055.55</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="13.15">
+    <row r="5" spans="1:14" ht="13.5">
       <c r="A5" s="13"/>
       <c r="B5" s="19" t="s">
         <v>73</v>
@@ -5187,7 +5192,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="13.15">
+    <row r="6" spans="1:14" ht="13.5">
       <c r="A6" s="13"/>
       <c r="B6" s="19" t="s">
         <v>74</v>
@@ -5208,7 +5213,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="13.15">
+    <row r="7" spans="1:14" ht="13.5">
       <c r="A7" s="13"/>
       <c r="B7" s="19" t="s">
         <v>75</v>
@@ -5229,7 +5234,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="13.15">
+    <row r="8" spans="1:14" ht="13.5">
       <c r="A8" s="13"/>
       <c r="B8" s="19" t="s">
         <v>76</v>
@@ -5256,7 +5261,7 @@
         <v>1.05555</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="13.15">
+    <row r="9" spans="1:14" ht="13.5">
       <c r="A9" s="13"/>
       <c r="B9" s="19" t="s">
         <v>77</v>
@@ -5283,7 +5288,7 @@
         <v>4.1868000000000002E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="13.15">
+    <row r="10" spans="1:14" ht="13.5">
       <c r="A10" s="13"/>
       <c r="B10" s="19" t="s">
         <v>79</v>
@@ -5310,7 +5315,7 @@
         <v>41.868000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="13.15">
+    <row r="11" spans="1:14" ht="13.5">
       <c r="A11" s="13"/>
       <c r="B11" s="19" t="s">
         <v>72</v>
@@ -5337,7 +5342,7 @@
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="13.15">
+    <row r="12" spans="1:14" ht="13.5">
       <c r="A12" s="13"/>
       <c r="B12" s="19" t="s">
         <v>83</v>
@@ -5364,7 +5369,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="13.15">
+    <row r="13" spans="1:14" ht="13.5">
       <c r="A13" s="13"/>
       <c r="B13" s="19" t="s">
         <v>86</v>
@@ -5391,7 +5396,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="13.15">
+    <row r="14" spans="1:14" ht="13.5">
       <c r="A14" s="13"/>
       <c r="B14" s="19" t="s">
         <v>88</v>
@@ -5418,7 +5423,7 @@
         <v>5.8615199999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="13.15">
+    <row r="15" spans="1:14" ht="13.5">
       <c r="A15" s="13"/>
       <c r="B15" s="19" t="s">
         <v>91</v>
@@ -5445,7 +5450,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="13.15">
+    <row r="16" spans="1:14" ht="13.5">
       <c r="A16" s="13"/>
       <c r="B16" s="19" t="s">
         <v>94</v>
@@ -5472,7 +5477,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="13.15">
+    <row r="17" spans="1:14" ht="13.5">
       <c r="A17" s="13"/>
       <c r="B17" s="19" t="s">
         <v>96</v>
@@ -5499,7 +5504,7 @@
         <v>37.68</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="13.15">
+    <row r="18" spans="1:14" ht="13.5">
       <c r="B18" s="19" t="s">
         <v>98</v>
       </c>
@@ -5525,7 +5530,7 @@
         <v>2139.4548</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="13.15">
+    <row r="19" spans="1:14" ht="13.5">
       <c r="B19" s="19" t="s">
         <v>100</v>
       </c>
@@ -5551,7 +5556,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="13.15">
+    <row r="20" spans="1:14" ht="13.5">
       <c r="B20" s="19" t="s">
         <v>102</v>
       </c>
@@ -5577,7 +5582,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="13.15">
+    <row r="21" spans="1:14" ht="13.5">
       <c r="B21" s="19" t="s">
         <v>104</v>
       </c>
@@ -5603,7 +5608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="13.15">
+    <row r="22" spans="1:14" ht="13.5">
       <c r="B22" s="19" t="s">
         <v>107</v>
       </c>
@@ -5629,7 +5634,7 @@
         <v>31.536000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="13.15">
+    <row r="23" spans="1:14" ht="13.5">
       <c r="B23" s="19" t="s">
         <v>110</v>
       </c>
@@ -5655,7 +5660,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="13.15">
+    <row r="24" spans="1:14" ht="13.5">
       <c r="B24" s="19" t="s">
         <v>113</v>
       </c>
@@ -5681,7 +5686,7 @@
         <v>5.8615199999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="13.15">
+    <row r="25" spans="1:14" ht="13.5">
       <c r="B25" s="19" t="s">
         <v>115</v>
       </c>
@@ -5707,7 +5712,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="13.15">
+    <row r="26" spans="1:14" ht="13.5">
       <c r="B26" s="19" t="s">
         <v>117</v>
       </c>
@@ -5724,7 +5729,7 @@
         <v>1.4198999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="13.15">
+    <row r="27" spans="1:14" ht="13.5">
       <c r="B27" s="19" t="s">
         <v>119</v>
       </c>
@@ -5741,7 +5746,7 @@
         <v>1.3986000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="13.15">
+    <row r="28" spans="1:14" ht="13.5">
       <c r="B28" s="19" t="s">
         <v>122</v>
       </c>
@@ -5758,7 +5763,7 @@
         <v>1.3727</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="13.15">
+    <row r="29" spans="1:14" ht="13.5">
       <c r="B29" s="19" t="s">
         <v>124</v>
       </c>
@@ -5775,7 +5780,7 @@
         <v>1.3369</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="13.15">
+    <row r="30" spans="1:14" ht="13.5">
       <c r="B30" s="19" t="s">
         <v>125</v>
       </c>
@@ -5792,7 +5797,7 @@
         <v>1.2967</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="13.15">
+    <row r="31" spans="1:14" ht="13.5">
       <c r="B31" s="19" t="s">
         <v>127</v>
       </c>
@@ -5809,7 +5814,7 @@
         <v>1.2583</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="13.15">
+    <row r="32" spans="1:14" ht="13.5">
       <c r="B32" s="19" t="s">
         <v>129</v>
       </c>
@@ -5826,7 +5831,7 @@
         <v>1.2253000000000001</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="13.15">
+    <row r="33" spans="2:9" ht="13.5">
       <c r="B33" s="19" t="s">
         <v>131</v>
       </c>
@@ -5843,7 +5848,7 @@
         <v>1.2023999999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="13.15">
+    <row r="34" spans="2:9" ht="13.5">
       <c r="B34" s="19" t="s">
         <v>133</v>
       </c>
@@ -5860,7 +5865,7 @@
         <v>1.1931</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="13.15">
+    <row r="35" spans="2:9" ht="13.5">
       <c r="B35" s="19" t="s">
         <v>134</v>
       </c>
@@ -5877,7 +5882,7 @@
         <v>1.1793</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="13.15">
+    <row r="36" spans="2:9" ht="13.5">
       <c r="B36" s="19" t="s">
         <v>135</v>
       </c>
@@ -5894,7 +5899,7 @@
         <v>1.1552</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="13.15">
+    <row r="37" spans="2:9" ht="13.5">
       <c r="B37" s="19" t="s">
         <v>136</v>
       </c>
@@ -5911,7 +5916,7 @@
         <v>1.1334</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="13.15">
+    <row r="38" spans="2:9" ht="13.5">
       <c r="B38" s="19" t="s">
         <v>137</v>
       </c>
@@ -5928,7 +5933,7 @@
         <v>1.1136999999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="13.15">
+    <row r="39" spans="2:9" ht="13.5">
       <c r="B39" s="19" t="s">
         <v>138</v>
       </c>
@@ -5945,7 +5950,7 @@
         <v>1.0934999999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="13.15">
+    <row r="40" spans="2:9" ht="13.5">
       <c r="B40" s="19" t="s">
         <v>139</v>
       </c>
@@ -5962,7 +5967,7 @@
         <v>1.0831</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="13.15">
+    <row r="41" spans="2:9" ht="13.5">
       <c r="B41" s="19" t="s">
         <v>140</v>
       </c>
@@ -5979,7 +5984,7 @@
         <v>1.0719000000000001</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="13.15">
+    <row r="42" spans="2:9" ht="13.5">
       <c r="B42" s="19" t="s">
         <v>141</v>
       </c>
@@ -5996,7 +6001,7 @@
         <v>1.0519000000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="13.15">
+    <row r="43" spans="2:9" ht="13.5">
       <c r="B43" s="19" t="s">
         <v>142</v>
       </c>
@@ -6013,7 +6018,7 @@
         <v>1.0274000000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="13.15">
+    <row r="44" spans="2:9" ht="13.5">
       <c r="B44" s="19" t="s">
         <v>143</v>
       </c>
@@ -6030,7 +6035,7 @@
         <v>1.0091000000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="13.15">
+    <row r="45" spans="2:9" ht="13.5">
       <c r="B45" s="19" t="s">
         <v>144</v>
       </c>
@@ -6047,7 +6052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="13.15">
+    <row r="46" spans="2:9" ht="13.5">
       <c r="B46" s="19" t="s">
         <v>145</v>
       </c>
@@ -6064,7 +6069,7 @@
         <v>0.98960000000000004</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="13.15">
+    <row r="47" spans="2:9" ht="13.5">
       <c r="B47" s="19" t="s">
         <v>146</v>
       </c>
@@ -6081,7 +6086,7 @@
         <v>0.97809999999999997</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="13.15">
+    <row r="48" spans="2:9" ht="13.5">
       <c r="B48" s="19" t="s">
         <v>147</v>
       </c>
@@ -6098,7 +6103,7 @@
         <v>0.96499999999999997</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="13.15">
+    <row r="49" spans="2:9" ht="13.5">
       <c r="B49" s="19" t="s">
         <v>148</v>
       </c>
@@ -6115,7 +6120,7 @@
         <v>0.94910000000000005</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="13.15">
+    <row r="50" spans="2:9" ht="13.5">
       <c r="B50" s="19" t="s">
         <v>149</v>
       </c>
@@ -6132,7 +6137,7 @@
         <v>0.92969999999999997</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="13.15">
+    <row r="51" spans="2:9" ht="13.5">
       <c r="B51" s="19" t="s">
         <v>150</v>
       </c>
@@ -6152,7 +6157,7 @@
         <v>0.98960000000000004</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="13.15">
+    <row r="52" spans="2:9" ht="13.5">
       <c r="B52" s="19" t="s">
         <v>151</v>
       </c>
@@ -6166,7 +6171,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="13.15">
+    <row r="53" spans="2:9" ht="13.5">
       <c r="B53" s="19" t="s">
         <v>152</v>
       </c>
@@ -6180,7 +6185,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="13.15">
+    <row r="54" spans="2:9" ht="13.5">
       <c r="B54" s="19" t="s">
         <v>153</v>
       </c>
@@ -6646,12 +6651,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="99" spans="5:10" ht="17.649999999999999" thickBot="1">
+    <row r="99" spans="5:10" ht="18" thickBot="1">
       <c r="E99" s="20" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="100" spans="5:10" ht="15" thickTop="1" thickBot="1">
+    <row r="100" spans="5:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="E100" s="4" t="s">
         <v>49</v>
       </c>
@@ -6671,7 +6676,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="101" spans="5:10" ht="14.25">
+    <row r="101" spans="5:10" ht="15">
       <c r="E101"/>
       <c r="F101" s="21" t="s">
         <v>190</v>
@@ -6687,7 +6692,7 @@
         <v>1.201442041042708</v>
       </c>
     </row>
-    <row r="102" spans="5:10" ht="14.25">
+    <row r="102" spans="5:10" ht="15">
       <c r="E102"/>
       <c r="F102" s="21" t="s">
         <v>192</v>
@@ -6713,19 +6718,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="8.86328125" style="6"/>
-    <col min="3" max="3" width="20.3984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.86328125" style="6"/>
+    <col min="1" max="2" width="8.85546875" style="6"/>
+    <col min="3" max="3" width="20.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="17.649999999999999" thickBot="1">
+    <row r="3" spans="2:4" ht="18" thickBot="1">
       <c r="B3" s="20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="15" thickTop="1" thickBot="1">
+    <row r="4" spans="2:4" ht="16.5" thickTop="1" thickBot="1">
       <c r="B4" s="4" t="s">
         <v>51</v>
       </c>
@@ -6917,12 +6922,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="17.649999999999999" thickBot="1">
+    <row r="25" spans="2:4" ht="18" thickBot="1">
       <c r="B25" s="20" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="15" thickTop="1" thickBot="1">
+    <row r="26" spans="2:4" ht="16.5" thickTop="1" thickBot="1">
       <c r="B26" s="4" t="s">
         <v>173</v>
       </c>

--- a/VerveStacks_EST/SysSettings.xlsx
+++ b/VerveStacks_EST/SysSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_EST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\PycharmProjects\ee-times\VerveStacks_EST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E9BC14-13EE-485E-AE75-608FA74E66C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954EC202-FB6E-4EC0-AD33-F107AA688645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="277">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -866,6 +866,9 @@
   </si>
   <si>
     <t>onshore wind electricity generation in cluster -- 10</t>
+  </si>
+  <si>
+    <t>msy7_2050</t>
   </si>
 </sst>
 </file>
@@ -873,21 +876,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="15">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_(&quot;£&quot;* #,##0.00_);_(&quot;£&quot;* \(#,##0.00\);_(&quot;£&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_ &quot;kr&quot;\ * #,##0_ ;_ &quot;kr&quot;\ * \-#,##0_ ;_ &quot;kr&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="_ &quot;kr&quot;\ * #,##0.00_ ;_ &quot;kr&quot;\ * \-#,##0.00_ ;_ &quot;kr&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="[&gt;0.5]#,##0;[&lt;-0.5]\-#,##0;\-"/>
-    <numFmt numFmtId="170" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* &quot;-&quot;??_-"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0\ &quot;F&quot;_-;\-* #,##0\ &quot;F&quot;_-;_-* &quot;-&quot;\ &quot;F&quot;_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="_-* #,##0\ _F_-;\-* #,##0\ _F_-;_-* &quot;-&quot;\ _F_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="_-* #,##0.00\ &quot;F&quot;_-;\-* #,##0.00\ &quot;F&quot;_-;_-* &quot;-&quot;??\ &quot;F&quot;_-;_-@_-"/>
-    <numFmt numFmtId="174" formatCode="_-* #,##0.00\ _F_-;\-* #,##0.00\ _F_-;_-* &quot;-&quot;??\ _F_-;_-@_-"/>
-    <numFmt numFmtId="175" formatCode="#,##0.0;\-#,##0.0;&quot;-&quot;"/>
-    <numFmt numFmtId="176" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_(&quot;£&quot;* #,##0.00_);_(&quot;£&quot;* \(#,##0.00\);_(&quot;£&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_ &quot;kr&quot;\ * #,##0_ ;_ &quot;kr&quot;\ * \-#,##0_ ;_ &quot;kr&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="169" formatCode="_ &quot;kr&quot;\ * #,##0.00_ ;_ &quot;kr&quot;\ * \-#,##0.00_ ;_ &quot;kr&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="170" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="[&gt;0.5]#,##0;[&lt;-0.5]\-#,##0;\-"/>
+    <numFmt numFmtId="172" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* &quot;-&quot;??_-"/>
+    <numFmt numFmtId="173" formatCode="_-* #,##0\ &quot;F&quot;_-;\-* #,##0\ &quot;F&quot;_-;_-* &quot;-&quot;\ &quot;F&quot;_-;_-@_-"/>
+    <numFmt numFmtId="174" formatCode="_-* #,##0\ _F_-;\-* #,##0\ _F_-;_-* &quot;-&quot;\ _F_-;_-@_-"/>
+    <numFmt numFmtId="175" formatCode="_-* #,##0.00\ &quot;F&quot;_-;\-* #,##0.00\ &quot;F&quot;_-;_-* &quot;-&quot;??\ &quot;F&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ _F_-;\-* #,##0.00\ _F_-;_-* &quot;-&quot;??\ _F_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="#,##0.0;\-#,##0.0;&quot;-&quot;"/>
+    <numFmt numFmtId="178" formatCode="\Te\x\t"/>
   </numFmts>
   <fonts count="59">
     <font>
@@ -1859,51 +1862,51 @@
     <xf numFmtId="0" fontId="44" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="1" fontId="1" fillId="41" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="1" fontId="1" fillId="42" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="43" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="43" borderId="0"/>
@@ -1929,68 +1932,68 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="11" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2023,10 +2026,10 @@
     <xf numFmtId="0" fontId="10" fillId="45" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="36" fillId="0" borderId="0">
+    <xf numFmtId="171" fontId="36" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="36" fillId="0" borderId="0">
+    <xf numFmtId="171" fontId="36" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2055,10 +2058,10 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="174" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="173" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="47" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
@@ -2218,8 +2221,8 @@
     <xf numFmtId="0" fontId="11" fillId="17" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="20" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2237,10 +2240,10 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="35" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="35" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="38" fillId="36" borderId="6"/>
@@ -2327,7 +2330,7 @@
     <xf numFmtId="0" fontId="28" fillId="46" borderId="12">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="4" fontId="38" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
@@ -2342,10 +2345,10 @@
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="431"/>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="22" xfId="432" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" xfId="432" applyBorder="1"/>
@@ -3218,15 +3221,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.06640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.9296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.53125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
@@ -3290,19 +3293,19 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.06640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.06640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18" ht="17.649999999999999" thickBot="1">
+    <row r="3" spans="2:18" ht="18" thickBot="1">
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
@@ -3321,7 +3324,7 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="2:18" ht="15" thickTop="1" thickBot="1">
+    <row r="4" spans="2:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
@@ -4199,17 +4202,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A39735C-B147-4873-BE33-BF7570891F36}">
   <dimension ref="B3:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.86328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.3984375" style="6"/>
-    <col min="4" max="4" width="14.1328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.86328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.86328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.3984375" style="6"/>
+    <col min="1" max="1" width="9.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="6"/>
+    <col min="4" max="4" width="14.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7">
@@ -4240,9 +4245,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="14.25">
+    <row r="12" spans="2:7" ht="15">
       <c r="B12" s="7" t="s">
-        <v>42</v>
+        <v>276</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>45</v>
@@ -4260,7 +4265,7 @@
         <v>msy5_2050</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="14.25">
+    <row r="13" spans="2:7" ht="15">
       <c r="B13" s="9">
         <v>1</v>
       </c>
@@ -4268,7 +4273,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="14.25">
+    <row r="14" spans="2:7" ht="15">
       <c r="B14" s="9">
         <v>5</v>
       </c>
@@ -4288,7 +4293,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="14.25">
+    <row r="15" spans="2:7" ht="15">
       <c r="B15" s="9">
         <v>5</v>
       </c>
@@ -4308,7 +4313,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="14.25">
+    <row r="16" spans="2:7" ht="15">
       <c r="B16" s="9">
         <v>10</v>
       </c>
@@ -4328,7 +4333,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="14.25">
+    <row r="17" spans="2:7" ht="15">
       <c r="B17" s="9">
         <v>10</v>
       </c>
@@ -4348,7 +4353,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="14.25">
+    <row r="18" spans="2:7" ht="15">
       <c r="B18" s="9">
         <v>10</v>
       </c>
@@ -4368,7 +4373,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="14.25">
+    <row r="19" spans="2:7" ht="15">
       <c r="B19" s="9">
         <v>10</v>
       </c>
@@ -4384,7 +4389,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="14.25">
+    <row r="20" spans="2:7" ht="15">
       <c r="B20" s="9">
         <v>10</v>
       </c>
@@ -4396,7 +4401,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="14.25">
+    <row r="21" spans="2:7" ht="15">
       <c r="B21" s="9">
         <v>10</v>
       </c>
@@ -4404,7 +4409,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="14.25">
+    <row r="22" spans="2:7" ht="15">
       <c r="B22" s="9">
         <v>10</v>
       </c>
@@ -4412,7 +4417,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="14.25">
+    <row r="23" spans="2:7" ht="15">
       <c r="B23" s="9">
         <v>10</v>
       </c>
@@ -4420,7 +4425,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="14.25">
+    <row r="24" spans="2:7" ht="15">
       <c r="B24" s="9">
         <v>10</v>
       </c>
@@ -4428,46 +4433,46 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="14.25">
+    <row r="25" spans="2:7" ht="15">
       <c r="B25" s="9"/>
       <c r="D25" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="14.25">
+    <row r="26" spans="2:7" ht="15">
       <c r="B26" s="9"/>
       <c r="D26" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="14.25">
+    <row r="27" spans="2:7" ht="15">
       <c r="B27" s="9"/>
       <c r="D27" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="14.25">
+    <row r="28" spans="2:7" ht="15">
       <c r="B28" s="9"/>
       <c r="D28" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="14.25">
+    <row r="29" spans="2:7" ht="15">
       <c r="B29" s="9"/>
       <c r="D29" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="14.25">
+    <row r="30" spans="2:7" ht="15">
       <c r="B30" s="9"/>
     </row>
-    <row r="31" spans="2:7" ht="14.25">
+    <row r="31" spans="2:7" ht="15">
       <c r="B31" s="9"/>
     </row>
-    <row r="32" spans="2:7" ht="14.25">
+    <row r="32" spans="2:7" ht="15">
       <c r="B32" s="9"/>
     </row>
-    <row r="33" spans="2:2" ht="14.25">
+    <row r="33" spans="2:2" ht="15">
       <c r="B33" s="9"/>
     </row>
   </sheetData>
@@ -4480,25 +4485,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A64C410-895F-4040-A7AB-3F7211AA7FBD}">
   <dimension ref="B1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D11" sqref="D11:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" style="11"/>
-    <col min="2" max="2" width="8.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.46484375" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.46484375" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.9296875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.9296875" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.1328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.53125" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.73046875" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.3984375" style="11"/>
+    <col min="1" max="1" width="11.42578125" style="11"/>
+    <col min="2" max="2" width="8.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="12.75">
@@ -4725,7 +4730,7 @@
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
     </row>
-    <row r="21" spans="2:14" ht="14.25">
+    <row r="21" spans="2:14" ht="15">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -4740,7 +4745,7 @@
       <c r="M21"/>
       <c r="N21"/>
     </row>
-    <row r="22" spans="2:14" ht="14.25">
+    <row r="22" spans="2:14" ht="15">
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
@@ -4755,7 +4760,7 @@
       <c r="M22"/>
       <c r="N22"/>
     </row>
-    <row r="23" spans="2:14" ht="14.25">
+    <row r="23" spans="2:14" ht="15">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
@@ -4770,7 +4775,7 @@
       <c r="M23"/>
       <c r="N23"/>
     </row>
-    <row r="24" spans="2:14" ht="14.25">
+    <row r="24" spans="2:14" ht="15">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
@@ -4785,7 +4790,7 @@
       <c r="M24"/>
       <c r="N24"/>
     </row>
-    <row r="25" spans="2:14" ht="14.25">
+    <row r="25" spans="2:14" ht="15">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -4800,7 +4805,7 @@
       <c r="M25"/>
       <c r="N25"/>
     </row>
-    <row r="26" spans="2:14" ht="14.25">
+    <row r="26" spans="2:14" ht="15">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -4815,7 +4820,7 @@
       <c r="M26"/>
       <c r="N26"/>
     </row>
-    <row r="27" spans="2:14" ht="14.25">
+    <row r="27" spans="2:14" ht="15">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -4830,7 +4835,7 @@
       <c r="M27"/>
       <c r="N27"/>
     </row>
-    <row r="28" spans="2:14" ht="14.25">
+    <row r="28" spans="2:14" ht="15">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
@@ -4845,7 +4850,7 @@
       <c r="M28"/>
       <c r="N28"/>
     </row>
-    <row r="29" spans="2:14" ht="14.25">
+    <row r="29" spans="2:14" ht="15">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
@@ -4860,7 +4865,7 @@
       <c r="M29"/>
       <c r="N29"/>
     </row>
-    <row r="30" spans="2:14" ht="14.25">
+    <row r="30" spans="2:14" ht="15">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -4875,7 +4880,7 @@
       <c r="M30"/>
       <c r="N30"/>
     </row>
-    <row r="31" spans="2:14" ht="14.25">
+    <row r="31" spans="2:14" ht="15">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -4890,7 +4895,7 @@
       <c r="M31"/>
       <c r="N31"/>
     </row>
-    <row r="32" spans="2:14" ht="14.25">
+    <row r="32" spans="2:14" ht="15">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
@@ -4905,7 +4910,7 @@
       <c r="M32"/>
       <c r="N32"/>
     </row>
-    <row r="33" spans="2:14" ht="14.25">
+    <row r="33" spans="2:14" ht="15">
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
@@ -4920,7 +4925,7 @@
       <c r="M33"/>
       <c r="N33"/>
     </row>
-    <row r="34" spans="2:14" ht="14.25">
+    <row r="34" spans="2:14" ht="15">
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
@@ -4935,7 +4940,7 @@
       <c r="M34"/>
       <c r="N34"/>
     </row>
-    <row r="35" spans="2:14" ht="14.25">
+    <row r="35" spans="2:14" ht="15">
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
@@ -4950,7 +4955,7 @@
       <c r="M35"/>
       <c r="N35"/>
     </row>
-    <row r="36" spans="2:14" ht="14.25">
+    <row r="36" spans="2:14" ht="15">
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
@@ -4965,7 +4970,7 @@
       <c r="M36"/>
       <c r="N36"/>
     </row>
-    <row r="37" spans="2:14" ht="14.25">
+    <row r="37" spans="2:14" ht="15">
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
@@ -4980,7 +4985,7 @@
       <c r="M37"/>
       <c r="N37"/>
     </row>
-    <row r="38" spans="2:14" ht="14.25">
+    <row r="38" spans="2:14" ht="15">
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
@@ -4995,7 +5000,7 @@
       <c r="M38"/>
       <c r="N38"/>
     </row>
-    <row r="39" spans="2:14" ht="14.25">
+    <row r="39" spans="2:14" ht="15">
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
@@ -5010,7 +5015,7 @@
       <c r="M39"/>
       <c r="N39"/>
     </row>
-    <row r="40" spans="2:14" ht="14.25">
+    <row r="40" spans="2:14" ht="15">
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
@@ -5025,7 +5030,7 @@
       <c r="M40"/>
       <c r="N40"/>
     </row>
-    <row r="41" spans="2:14" ht="14.25">
+    <row r="41" spans="2:14" ht="15">
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
@@ -5040,7 +5045,7 @@
       <c r="M41"/>
       <c r="N41"/>
     </row>
-    <row r="42" spans="2:14" ht="14.25">
+    <row r="42" spans="2:14" ht="15">
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
@@ -5070,25 +5075,25 @@
       <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" style="11"/>
-    <col min="2" max="2" width="12.73046875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.3984375" style="11"/>
-    <col min="5" max="5" width="13.53125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.9296875" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.3984375" style="11"/>
-    <col min="12" max="12" width="17.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.73046875" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.3984375" style="11"/>
+    <col min="1" max="1" width="11.42578125" style="11"/>
+    <col min="2" max="2" width="12.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="11"/>
+    <col min="5" max="5" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="11"/>
+    <col min="12" max="12" width="17.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="17.649999999999999" thickBot="1">
+    <row r="2" spans="1:14" ht="18" thickBot="1">
       <c r="A2" s="13"/>
       <c r="B2" s="20" t="s">
         <v>69</v>
@@ -5102,7 +5107,7 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" ht="15" thickTop="1" thickBot="1">
+    <row r="3" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="13"/>
       <c r="B3" s="4" t="s">
         <v>71</v>
@@ -5135,7 +5140,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="13.15">
+    <row r="4" spans="1:14" ht="13.5">
       <c r="A4" s="13"/>
       <c r="B4" s="19" t="s">
         <v>135</v>
@@ -5160,7 +5165,7 @@
         <v>1055.55</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="13.15">
+    <row r="5" spans="1:14" ht="13.5">
       <c r="A5" s="13"/>
       <c r="B5" s="19" t="s">
         <v>73</v>
@@ -5187,7 +5192,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="13.15">
+    <row r="6" spans="1:14" ht="13.5">
       <c r="A6" s="13"/>
       <c r="B6" s="19" t="s">
         <v>74</v>
@@ -5208,7 +5213,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="13.15">
+    <row r="7" spans="1:14" ht="13.5">
       <c r="A7" s="13"/>
       <c r="B7" s="19" t="s">
         <v>75</v>
@@ -5229,7 +5234,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="13.15">
+    <row r="8" spans="1:14" ht="13.5">
       <c r="A8" s="13"/>
       <c r="B8" s="19" t="s">
         <v>76</v>
@@ -5256,7 +5261,7 @@
         <v>1.05555</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="13.15">
+    <row r="9" spans="1:14" ht="13.5">
       <c r="A9" s="13"/>
       <c r="B9" s="19" t="s">
         <v>77</v>
@@ -5283,7 +5288,7 @@
         <v>4.1868000000000002E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="13.15">
+    <row r="10" spans="1:14" ht="13.5">
       <c r="A10" s="13"/>
       <c r="B10" s="19" t="s">
         <v>79</v>
@@ -5310,7 +5315,7 @@
         <v>41.868000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="13.15">
+    <row r="11" spans="1:14" ht="13.5">
       <c r="A11" s="13"/>
       <c r="B11" s="19" t="s">
         <v>72</v>
@@ -5337,7 +5342,7 @@
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="13.15">
+    <row r="12" spans="1:14" ht="13.5">
       <c r="A12" s="13"/>
       <c r="B12" s="19" t="s">
         <v>83</v>
@@ -5364,7 +5369,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="13.15">
+    <row r="13" spans="1:14" ht="13.5">
       <c r="A13" s="13"/>
       <c r="B13" s="19" t="s">
         <v>86</v>
@@ -5391,7 +5396,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="13.15">
+    <row r="14" spans="1:14" ht="13.5">
       <c r="A14" s="13"/>
       <c r="B14" s="19" t="s">
         <v>88</v>
@@ -5418,7 +5423,7 @@
         <v>5.8615199999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="13.15">
+    <row r="15" spans="1:14" ht="13.5">
       <c r="A15" s="13"/>
       <c r="B15" s="19" t="s">
         <v>91</v>
@@ -5445,7 +5450,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="13.15">
+    <row r="16" spans="1:14" ht="13.5">
       <c r="A16" s="13"/>
       <c r="B16" s="19" t="s">
         <v>94</v>
@@ -5472,7 +5477,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="13.15">
+    <row r="17" spans="1:14" ht="13.5">
       <c r="A17" s="13"/>
       <c r="B17" s="19" t="s">
         <v>96</v>
@@ -5499,7 +5504,7 @@
         <v>37.68</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="13.15">
+    <row r="18" spans="1:14" ht="13.5">
       <c r="B18" s="19" t="s">
         <v>98</v>
       </c>
@@ -5525,7 +5530,7 @@
         <v>2139.4548</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="13.15">
+    <row r="19" spans="1:14" ht="13.5">
       <c r="B19" s="19" t="s">
         <v>100</v>
       </c>
@@ -5551,7 +5556,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="13.15">
+    <row r="20" spans="1:14" ht="13.5">
       <c r="B20" s="19" t="s">
         <v>102</v>
       </c>
@@ -5577,7 +5582,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="13.15">
+    <row r="21" spans="1:14" ht="13.5">
       <c r="B21" s="19" t="s">
         <v>104</v>
       </c>
@@ -5603,7 +5608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="13.15">
+    <row r="22" spans="1:14" ht="13.5">
       <c r="B22" s="19" t="s">
         <v>107</v>
       </c>
@@ -5629,7 +5634,7 @@
         <v>31.536000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="13.15">
+    <row r="23" spans="1:14" ht="13.5">
       <c r="B23" s="19" t="s">
         <v>110</v>
       </c>
@@ -5655,7 +5660,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="13.15">
+    <row r="24" spans="1:14" ht="13.5">
       <c r="B24" s="19" t="s">
         <v>113</v>
       </c>
@@ -5681,7 +5686,7 @@
         <v>5.8615199999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="13.15">
+    <row r="25" spans="1:14" ht="13.5">
       <c r="B25" s="19" t="s">
         <v>115</v>
       </c>
@@ -5707,7 +5712,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="13.15">
+    <row r="26" spans="1:14" ht="13.5">
       <c r="B26" s="19" t="s">
         <v>117</v>
       </c>
@@ -5724,7 +5729,7 @@
         <v>1.4198999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="13.15">
+    <row r="27" spans="1:14" ht="13.5">
       <c r="B27" s="19" t="s">
         <v>119</v>
       </c>
@@ -5741,7 +5746,7 @@
         <v>1.3986000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="13.15">
+    <row r="28" spans="1:14" ht="13.5">
       <c r="B28" s="19" t="s">
         <v>122</v>
       </c>
@@ -5758,7 +5763,7 @@
         <v>1.3727</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="13.15">
+    <row r="29" spans="1:14" ht="13.5">
       <c r="B29" s="19" t="s">
         <v>124</v>
       </c>
@@ -5775,7 +5780,7 @@
         <v>1.3369</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="13.15">
+    <row r="30" spans="1:14" ht="13.5">
       <c r="B30" s="19" t="s">
         <v>125</v>
       </c>
@@ -5792,7 +5797,7 @@
         <v>1.2967</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="13.15">
+    <row r="31" spans="1:14" ht="13.5">
       <c r="B31" s="19" t="s">
         <v>127</v>
       </c>
@@ -5809,7 +5814,7 @@
         <v>1.2583</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="13.15">
+    <row r="32" spans="1:14" ht="13.5">
       <c r="B32" s="19" t="s">
         <v>129</v>
       </c>
@@ -5826,7 +5831,7 @@
         <v>1.2253000000000001</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="13.15">
+    <row r="33" spans="2:9" ht="13.5">
       <c r="B33" s="19" t="s">
         <v>131</v>
       </c>
@@ -5843,7 +5848,7 @@
         <v>1.2023999999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="13.15">
+    <row r="34" spans="2:9" ht="13.5">
       <c r="B34" s="19" t="s">
         <v>133</v>
       </c>
@@ -5860,7 +5865,7 @@
         <v>1.1931</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="13.15">
+    <row r="35" spans="2:9" ht="13.5">
       <c r="B35" s="19" t="s">
         <v>134</v>
       </c>
@@ -5877,7 +5882,7 @@
         <v>1.1793</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="13.15">
+    <row r="36" spans="2:9" ht="13.5">
       <c r="B36" s="19" t="s">
         <v>135</v>
       </c>
@@ -5894,7 +5899,7 @@
         <v>1.1552</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="13.15">
+    <row r="37" spans="2:9" ht="13.5">
       <c r="B37" s="19" t="s">
         <v>136</v>
       </c>
@@ -5911,7 +5916,7 @@
         <v>1.1334</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="13.15">
+    <row r="38" spans="2:9" ht="13.5">
       <c r="B38" s="19" t="s">
         <v>137</v>
       </c>
@@ -5928,7 +5933,7 @@
         <v>1.1136999999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="13.15">
+    <row r="39" spans="2:9" ht="13.5">
       <c r="B39" s="19" t="s">
         <v>138</v>
       </c>
@@ -5945,7 +5950,7 @@
         <v>1.0934999999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="13.15">
+    <row r="40" spans="2:9" ht="13.5">
       <c r="B40" s="19" t="s">
         <v>139</v>
       </c>
@@ -5962,7 +5967,7 @@
         <v>1.0831</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="13.15">
+    <row r="41" spans="2:9" ht="13.5">
       <c r="B41" s="19" t="s">
         <v>140</v>
       </c>
@@ -5979,7 +5984,7 @@
         <v>1.0719000000000001</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="13.15">
+    <row r="42" spans="2:9" ht="13.5">
       <c r="B42" s="19" t="s">
         <v>141</v>
       </c>
@@ -5996,7 +6001,7 @@
         <v>1.0519000000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="13.15">
+    <row r="43" spans="2:9" ht="13.5">
       <c r="B43" s="19" t="s">
         <v>142</v>
       </c>
@@ -6013,7 +6018,7 @@
         <v>1.0274000000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="13.15">
+    <row r="44" spans="2:9" ht="13.5">
       <c r="B44" s="19" t="s">
         <v>143</v>
       </c>
@@ -6030,7 +6035,7 @@
         <v>1.0091000000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="13.15">
+    <row r="45" spans="2:9" ht="13.5">
       <c r="B45" s="19" t="s">
         <v>144</v>
       </c>
@@ -6047,7 +6052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="13.15">
+    <row r="46" spans="2:9" ht="13.5">
       <c r="B46" s="19" t="s">
         <v>145</v>
       </c>
@@ -6064,7 +6069,7 @@
         <v>0.98960000000000004</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="13.15">
+    <row r="47" spans="2:9" ht="13.5">
       <c r="B47" s="19" t="s">
         <v>146</v>
       </c>
@@ -6081,7 +6086,7 @@
         <v>0.97809999999999997</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="13.15">
+    <row r="48" spans="2:9" ht="13.5">
       <c r="B48" s="19" t="s">
         <v>147</v>
       </c>
@@ -6098,7 +6103,7 @@
         <v>0.96499999999999997</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="13.15">
+    <row r="49" spans="2:9" ht="13.5">
       <c r="B49" s="19" t="s">
         <v>148</v>
       </c>
@@ -6115,7 +6120,7 @@
         <v>0.94910000000000005</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="13.15">
+    <row r="50" spans="2:9" ht="13.5">
       <c r="B50" s="19" t="s">
         <v>149</v>
       </c>
@@ -6132,7 +6137,7 @@
         <v>0.92969999999999997</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="13.15">
+    <row r="51" spans="2:9" ht="13.5">
       <c r="B51" s="19" t="s">
         <v>150</v>
       </c>
@@ -6152,7 +6157,7 @@
         <v>0.98960000000000004</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="13.15">
+    <row r="52" spans="2:9" ht="13.5">
       <c r="B52" s="19" t="s">
         <v>151</v>
       </c>
@@ -6166,7 +6171,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="13.15">
+    <row r="53" spans="2:9" ht="13.5">
       <c r="B53" s="19" t="s">
         <v>152</v>
       </c>
@@ -6180,7 +6185,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="13.15">
+    <row r="54" spans="2:9" ht="13.5">
       <c r="B54" s="19" t="s">
         <v>153</v>
       </c>
@@ -6646,12 +6651,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="99" spans="5:10" ht="17.649999999999999" thickBot="1">
+    <row r="99" spans="5:10" ht="18" thickBot="1">
       <c r="E99" s="20" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="100" spans="5:10" ht="15" thickTop="1" thickBot="1">
+    <row r="100" spans="5:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="E100" s="4" t="s">
         <v>49</v>
       </c>
@@ -6671,7 +6676,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="101" spans="5:10" ht="14.25">
+    <row r="101" spans="5:10" ht="15">
       <c r="E101"/>
       <c r="F101" s="21" t="s">
         <v>190</v>
@@ -6687,7 +6692,7 @@
         <v>1.201442041042708</v>
       </c>
     </row>
-    <row r="102" spans="5:10" ht="14.25">
+    <row r="102" spans="5:10" ht="15">
       <c r="E102"/>
       <c r="F102" s="21" t="s">
         <v>192</v>
@@ -6713,19 +6718,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="8.86328125" style="6"/>
-    <col min="3" max="3" width="20.3984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.86328125" style="6"/>
+    <col min="1" max="2" width="8.85546875" style="6"/>
+    <col min="3" max="3" width="20.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="17.649999999999999" thickBot="1">
+    <row r="3" spans="2:4" ht="18" thickBot="1">
       <c r="B3" s="20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="15" thickTop="1" thickBot="1">
+    <row r="4" spans="2:4" ht="16.5" thickTop="1" thickBot="1">
       <c r="B4" s="4" t="s">
         <v>51</v>
       </c>
@@ -6917,12 +6922,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="17.649999999999999" thickBot="1">
+    <row r="25" spans="2:4" ht="18" thickBot="1">
       <c r="B25" s="20" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="15" thickTop="1" thickBot="1">
+    <row r="26" spans="2:4" ht="16.5" thickTop="1" thickBot="1">
       <c r="B26" s="4" t="s">
         <v>173</v>
       </c>

--- a/VerveStacks_EST/SysSettings.xlsx
+++ b/VerveStacks_EST/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\PycharmProjects\ee-times\VerveStacks_EST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A0805A-B2B9-474F-8868-D0E78427A19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C119179-C452-4E45-90CF-4759188E33B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="276">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -164,9 +164,6 @@
   </si>
   <si>
     <t>~ActivePDef</t>
-  </si>
-  <si>
-    <t>PDef1</t>
   </si>
   <si>
     <t>~TimePeriods</t>
@@ -3262,7 +3259,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F4" t="s">
         <v>36</v>
@@ -3350,7 +3347,7 @@
         <v>16</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>10</v>
@@ -3382,10 +3379,10 @@
         <v>17</v>
       </c>
       <c r="N5" t="s">
+        <v>214</v>
+      </c>
+      <c r="O5" t="s">
         <v>215</v>
-      </c>
-      <c r="O5" t="s">
-        <v>216</v>
       </c>
       <c r="P5" t="s">
         <v>25</v>
@@ -3394,7 +3391,7 @@
         <v>35</v>
       </c>
       <c r="R5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="2:18">
@@ -3402,7 +3399,7 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
@@ -3411,10 +3408,10 @@
         <v>17</v>
       </c>
       <c r="N6" t="s">
+        <v>217</v>
+      </c>
+      <c r="O6" t="s">
         <v>218</v>
-      </c>
-      <c r="O6" t="s">
-        <v>219</v>
       </c>
       <c r="P6" t="s">
         <v>25</v>
@@ -3423,7 +3420,7 @@
         <v>35</v>
       </c>
       <c r="R6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="2:18">
@@ -3431,7 +3428,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
@@ -3440,10 +3437,10 @@
         <v>17</v>
       </c>
       <c r="N7" t="s">
+        <v>219</v>
+      </c>
+      <c r="O7" t="s">
         <v>220</v>
-      </c>
-      <c r="O7" t="s">
-        <v>221</v>
       </c>
       <c r="P7" t="s">
         <v>25</v>
@@ -3452,7 +3449,7 @@
         <v>35</v>
       </c>
       <c r="R7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="2:18">
@@ -3469,10 +3466,10 @@
         <v>17</v>
       </c>
       <c r="N8" t="s">
+        <v>221</v>
+      </c>
+      <c r="O8" t="s">
         <v>222</v>
-      </c>
-      <c r="O8" t="s">
-        <v>223</v>
       </c>
       <c r="P8" t="s">
         <v>25</v>
@@ -3481,7 +3478,7 @@
         <v>35</v>
       </c>
       <c r="R8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="2:18">
@@ -3498,10 +3495,10 @@
         <v>17</v>
       </c>
       <c r="N9" t="s">
+        <v>223</v>
+      </c>
+      <c r="O9" t="s">
         <v>224</v>
-      </c>
-      <c r="O9" t="s">
-        <v>225</v>
       </c>
       <c r="P9" t="s">
         <v>25</v>
@@ -3510,7 +3507,7 @@
         <v>35</v>
       </c>
       <c r="R9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="2:18">
@@ -3527,10 +3524,10 @@
         <v>17</v>
       </c>
       <c r="N10" t="s">
+        <v>225</v>
+      </c>
+      <c r="O10" t="s">
         <v>226</v>
-      </c>
-      <c r="O10" t="s">
-        <v>227</v>
       </c>
       <c r="P10" t="s">
         <v>25</v>
@@ -3539,7 +3536,7 @@
         <v>35</v>
       </c>
       <c r="R10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="2:18">
@@ -3556,10 +3553,10 @@
         <v>17</v>
       </c>
       <c r="N11" t="s">
+        <v>227</v>
+      </c>
+      <c r="O11" t="s">
         <v>228</v>
-      </c>
-      <c r="O11" t="s">
-        <v>229</v>
       </c>
       <c r="P11" t="s">
         <v>25</v>
@@ -3568,7 +3565,7 @@
         <v>35</v>
       </c>
       <c r="R11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="2:18">
@@ -3576,7 +3573,7 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
@@ -3585,10 +3582,10 @@
         <v>17</v>
       </c>
       <c r="N12" t="s">
+        <v>229</v>
+      </c>
+      <c r="O12" t="s">
         <v>230</v>
-      </c>
-      <c r="O12" t="s">
-        <v>231</v>
       </c>
       <c r="P12" t="s">
         <v>25</v>
@@ -3597,7 +3594,7 @@
         <v>35</v>
       </c>
       <c r="R12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="2:18">
@@ -3614,10 +3611,10 @@
         <v>17</v>
       </c>
       <c r="N13" t="s">
+        <v>231</v>
+      </c>
+      <c r="O13" t="s">
         <v>232</v>
-      </c>
-      <c r="O13" t="s">
-        <v>233</v>
       </c>
       <c r="P13" t="s">
         <v>25</v>
@@ -3626,7 +3623,7 @@
         <v>35</v>
       </c>
       <c r="R13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="2:18">
@@ -3634,10 +3631,10 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
@@ -3646,10 +3643,10 @@
         <v>17</v>
       </c>
       <c r="N14" t="s">
+        <v>233</v>
+      </c>
+      <c r="O14" t="s">
         <v>234</v>
-      </c>
-      <c r="O14" t="s">
-        <v>235</v>
       </c>
       <c r="P14" t="s">
         <v>25</v>
@@ -3658,7 +3655,7 @@
         <v>35</v>
       </c>
       <c r="R14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="2:18">
@@ -3666,10 +3663,10 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
@@ -3678,10 +3675,10 @@
         <v>17</v>
       </c>
       <c r="N15" t="s">
+        <v>235</v>
+      </c>
+      <c r="O15" t="s">
         <v>236</v>
-      </c>
-      <c r="O15" t="s">
-        <v>237</v>
       </c>
       <c r="P15" t="s">
         <v>25</v>
@@ -3690,7 +3687,7 @@
         <v>35</v>
       </c>
       <c r="R15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="2:18">
@@ -3719,10 +3716,10 @@
         <v>17</v>
       </c>
       <c r="N16" t="s">
+        <v>237</v>
+      </c>
+      <c r="O16" t="s">
         <v>238</v>
-      </c>
-      <c r="O16" t="s">
-        <v>239</v>
       </c>
       <c r="P16" t="s">
         <v>25</v>
@@ -3731,7 +3728,7 @@
         <v>35</v>
       </c>
       <c r="R16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="2:18">
@@ -3739,10 +3736,10 @@
         <v>34</v>
       </c>
       <c r="C17" t="s">
+        <v>202</v>
+      </c>
+      <c r="D17" t="s">
         <v>203</v>
-      </c>
-      <c r="D17" t="s">
-        <v>204</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
@@ -3751,10 +3748,10 @@
         <v>17</v>
       </c>
       <c r="N17" t="s">
+        <v>239</v>
+      </c>
+      <c r="O17" t="s">
         <v>240</v>
-      </c>
-      <c r="O17" t="s">
-        <v>241</v>
       </c>
       <c r="P17" t="s">
         <v>25</v>
@@ -3763,7 +3760,7 @@
         <v>35</v>
       </c>
       <c r="R17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="2:18">
@@ -3783,10 +3780,10 @@
         <v>17</v>
       </c>
       <c r="N18" t="s">
+        <v>241</v>
+      </c>
+      <c r="O18" t="s">
         <v>242</v>
-      </c>
-      <c r="O18" t="s">
-        <v>243</v>
       </c>
       <c r="P18" t="s">
         <v>25</v>
@@ -3795,7 +3792,7 @@
         <v>35</v>
       </c>
       <c r="R18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="2:18">
@@ -3815,10 +3812,10 @@
         <v>17</v>
       </c>
       <c r="N19" t="s">
+        <v>243</v>
+      </c>
+      <c r="O19" t="s">
         <v>244</v>
-      </c>
-      <c r="O19" t="s">
-        <v>245</v>
       </c>
       <c r="P19" t="s">
         <v>25</v>
@@ -3827,7 +3824,7 @@
         <v>35</v>
       </c>
       <c r="R19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="2:18">
@@ -3847,10 +3844,10 @@
         <v>17</v>
       </c>
       <c r="N20" t="s">
+        <v>245</v>
+      </c>
+      <c r="O20" t="s">
         <v>246</v>
-      </c>
-      <c r="O20" t="s">
-        <v>247</v>
       </c>
       <c r="P20" t="s">
         <v>25</v>
@@ -3859,7 +3856,7 @@
         <v>35</v>
       </c>
       <c r="R20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="2:18">
@@ -3867,10 +3864,10 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" t="s">
         <v>197</v>
-      </c>
-      <c r="D21" t="s">
-        <v>198</v>
       </c>
       <c r="E21" t="s">
         <v>18</v>
@@ -3885,10 +3882,10 @@
         <v>17</v>
       </c>
       <c r="N21" t="s">
+        <v>247</v>
+      </c>
+      <c r="O21" t="s">
         <v>248</v>
-      </c>
-      <c r="O21" t="s">
-        <v>249</v>
       </c>
       <c r="P21" t="s">
         <v>25</v>
@@ -3897,30 +3894,30 @@
         <v>35</v>
       </c>
       <c r="R21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="2:18">
       <c r="B22" t="s">
+        <v>192</v>
+      </c>
+      <c r="C22" t="s">
         <v>193</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>194</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>195</v>
-      </c>
-      <c r="E22" t="s">
-        <v>196</v>
       </c>
       <c r="M22" t="s">
         <v>17</v>
       </c>
       <c r="N22" t="s">
+        <v>249</v>
+      </c>
+      <c r="O22" t="s">
         <v>250</v>
-      </c>
-      <c r="O22" t="s">
-        <v>251</v>
       </c>
       <c r="P22" t="s">
         <v>25</v>
@@ -3929,27 +3926,27 @@
         <v>35</v>
       </c>
       <c r="R22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="2:18">
       <c r="B23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M23" t="s">
         <v>17</v>
       </c>
       <c r="N23" t="s">
+        <v>251</v>
+      </c>
+      <c r="O23" t="s">
         <v>252</v>
-      </c>
-      <c r="O23" t="s">
-        <v>253</v>
       </c>
       <c r="P23" t="s">
         <v>25</v>
@@ -3958,27 +3955,27 @@
         <v>35</v>
       </c>
       <c r="R23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="2:18">
       <c r="B24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M24" t="s">
         <v>17</v>
       </c>
       <c r="N24" t="s">
+        <v>253</v>
+      </c>
+      <c r="O24" t="s">
         <v>254</v>
-      </c>
-      <c r="O24" t="s">
-        <v>255</v>
       </c>
       <c r="P24" t="s">
         <v>25</v>
@@ -3987,7 +3984,7 @@
         <v>35</v>
       </c>
       <c r="R24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="2:18">
@@ -3995,10 +3992,10 @@
         <v>17</v>
       </c>
       <c r="N25" t="s">
+        <v>255</v>
+      </c>
+      <c r="O25" t="s">
         <v>256</v>
-      </c>
-      <c r="O25" t="s">
-        <v>257</v>
       </c>
       <c r="P25" t="s">
         <v>25</v>
@@ -4007,7 +4004,7 @@
         <v>35</v>
       </c>
       <c r="R25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="2:18">
@@ -4015,10 +4012,10 @@
         <v>17</v>
       </c>
       <c r="N26" t="s">
+        <v>257</v>
+      </c>
+      <c r="O26" t="s">
         <v>258</v>
-      </c>
-      <c r="O26" t="s">
-        <v>259</v>
       </c>
       <c r="P26" t="s">
         <v>25</v>
@@ -4027,7 +4024,7 @@
         <v>35</v>
       </c>
       <c r="R26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="2:18">
@@ -4035,10 +4032,10 @@
         <v>17</v>
       </c>
       <c r="N27" t="s">
+        <v>259</v>
+      </c>
+      <c r="O27" t="s">
         <v>260</v>
-      </c>
-      <c r="O27" t="s">
-        <v>261</v>
       </c>
       <c r="P27" t="s">
         <v>25</v>
@@ -4047,7 +4044,7 @@
         <v>35</v>
       </c>
       <c r="R27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="2:18">
@@ -4055,10 +4052,10 @@
         <v>17</v>
       </c>
       <c r="N28" t="s">
+        <v>261</v>
+      </c>
+      <c r="O28" t="s">
         <v>262</v>
-      </c>
-      <c r="O28" t="s">
-        <v>263</v>
       </c>
       <c r="P28" t="s">
         <v>25</v>
@@ -4067,7 +4064,7 @@
         <v>35</v>
       </c>
       <c r="R28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="2:18">
@@ -4075,10 +4072,10 @@
         <v>17</v>
       </c>
       <c r="N29" t="s">
+        <v>263</v>
+      </c>
+      <c r="O29" t="s">
         <v>264</v>
-      </c>
-      <c r="O29" t="s">
-        <v>265</v>
       </c>
       <c r="P29" t="s">
         <v>25</v>
@@ -4087,7 +4084,7 @@
         <v>35</v>
       </c>
       <c r="R29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="2:18">
@@ -4095,10 +4092,10 @@
         <v>17</v>
       </c>
       <c r="N30" t="s">
+        <v>265</v>
+      </c>
+      <c r="O30" t="s">
         <v>266</v>
-      </c>
-      <c r="O30" t="s">
-        <v>267</v>
       </c>
       <c r="P30" t="s">
         <v>25</v>
@@ -4107,7 +4104,7 @@
         <v>35</v>
       </c>
       <c r="R30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="2:18">
@@ -4115,10 +4112,10 @@
         <v>17</v>
       </c>
       <c r="N31" t="s">
+        <v>267</v>
+      </c>
+      <c r="O31" t="s">
         <v>268</v>
-      </c>
-      <c r="O31" t="s">
-        <v>269</v>
       </c>
       <c r="P31" t="s">
         <v>25</v>
@@ -4127,7 +4124,7 @@
         <v>35</v>
       </c>
       <c r="R31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="2:18">
@@ -4135,10 +4132,10 @@
         <v>17</v>
       </c>
       <c r="N32" t="s">
+        <v>269</v>
+      </c>
+      <c r="O32" t="s">
         <v>270</v>
-      </c>
-      <c r="O32" t="s">
-        <v>271</v>
       </c>
       <c r="P32" t="s">
         <v>25</v>
@@ -4147,7 +4144,7 @@
         <v>35</v>
       </c>
       <c r="R32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="13:18">
@@ -4155,10 +4152,10 @@
         <v>17</v>
       </c>
       <c r="N33" t="s">
+        <v>271</v>
+      </c>
+      <c r="O33" t="s">
         <v>272</v>
-      </c>
-      <c r="O33" t="s">
-        <v>273</v>
       </c>
       <c r="P33" t="s">
         <v>25</v>
@@ -4167,7 +4164,7 @@
         <v>35</v>
       </c>
       <c r="R33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34" spans="13:18">
@@ -4175,10 +4172,10 @@
         <v>17</v>
       </c>
       <c r="N34" t="s">
+        <v>273</v>
+      </c>
+      <c r="O34" t="s">
         <v>274</v>
-      </c>
-      <c r="O34" t="s">
-        <v>275</v>
       </c>
       <c r="P34" t="s">
         <v>25</v>
@@ -4187,7 +4184,7 @@
         <v>35</v>
       </c>
       <c r="R34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -4203,7 +4200,7 @@
   <dimension ref="B3:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4234,23 +4231,23 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="15">
       <c r="B12" s="7" t="s">
-        <v>42</v>
+        <v>275</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="8" t="str">
         <f>"msy"&amp;COUNT(E14:E46)&amp;"_"&amp;MAX(E14:E46)</f>
@@ -4270,7 +4267,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="15">
@@ -4278,7 +4275,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" ref="E14:G14" si="1">$B$4</f>
@@ -4298,7 +4295,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" s="6">
         <f>E14+3</f>
@@ -4318,7 +4315,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" s="6">
         <f>E15+5</f>
@@ -4338,7 +4335,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" ref="E17:E20" si="2">E16+5</f>
@@ -4358,7 +4355,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="2"/>
@@ -4378,7 +4375,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="2"/>
@@ -4394,7 +4391,7 @@
         <v>10</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="2"/>
@@ -4406,7 +4403,7 @@
         <v>10</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="15">
@@ -4414,7 +4411,7 @@
         <v>10</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="15">
@@ -4422,7 +4419,7 @@
         <v>10</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="15">
@@ -4430,37 +4427,37 @@
         <v>10</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="15">
       <c r="B25" s="9"/>
       <c r="D25" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="15">
       <c r="B26" s="9"/>
       <c r="D26" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="15">
       <c r="B27" s="9"/>
       <c r="D27" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="15">
       <c r="B28" s="9"/>
       <c r="D28" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="15">
       <c r="B29" s="9"/>
       <c r="D29" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="15">
@@ -4534,7 +4531,7 @@
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -4542,42 +4539,42 @@
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="E5" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="H5" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="I5" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="J5" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="K5" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="L5" s="15" t="s">
         <v>58</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="6" spans="2:12">
       <c r="D6" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" s="11">
         <v>0</v>
@@ -4588,7 +4585,7 @@
     </row>
     <row r="7" spans="2:12">
       <c r="D7" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" s="11">
         <v>0</v>
@@ -4599,7 +4596,7 @@
     </row>
     <row r="8" spans="2:12">
       <c r="D8" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" s="11">
         <v>0</v>
@@ -4610,7 +4607,7 @@
     </row>
     <row r="9" spans="2:12">
       <c r="D9" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E9" s="11">
         <v>0</v>
@@ -4621,7 +4618,7 @@
     </row>
     <row r="10" spans="2:12">
       <c r="D10" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E10" s="11">
         <v>0</v>
@@ -4632,7 +4629,7 @@
     </row>
     <row r="11" spans="2:12">
       <c r="D11" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E11" s="11">
         <v>0</v>
@@ -4643,7 +4640,7 @@
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -4651,50 +4648,50 @@
     </row>
     <row r="15" spans="2:12">
       <c r="B15" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="D15" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>51</v>
-      </c>
       <c r="E15" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>65</v>
-      </c>
       <c r="H15" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="15" t="s">
         <v>55</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="16" spans="2:12">
       <c r="D16" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F16" s="11">
         <v>2222</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="2:14">
       <c r="D17" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F17" s="11">
         <v>8888</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="12.75">
@@ -5096,13 +5093,13 @@
     <row r="2" spans="1:14" ht="18" thickBot="1">
       <c r="A2" s="13"/>
       <c r="B2" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
@@ -5110,44 +5107,44 @@
     <row r="3" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="13"/>
       <c r="B3" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I3" s="4">
         <v>2022</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="13.5">
       <c r="A4" s="13"/>
       <c r="B4" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" s="6"/>
       <c r="F4" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I4" s="11">
         <v>0.05</v>
@@ -5156,10 +5153,10 @@
         <v>25</v>
       </c>
       <c r="L4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>85</v>
       </c>
       <c r="N4" s="6">
         <v>1055.55</v>
@@ -5168,13 +5165,13 @@
     <row r="5" spans="1:14" ht="13.5">
       <c r="A5" s="13"/>
       <c r="B5" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="I5" s="11">
         <v>1</v>
@@ -5183,10 +5180,10 @@
         <v>25</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N5" s="6">
         <v>3.6</v>
@@ -5195,19 +5192,19 @@
     <row r="6" spans="1:14" ht="13.5">
       <c r="A6" s="13"/>
       <c r="B6" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I6" s="11">
         <v>2025</v>
       </c>
       <c r="L6" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="N6" s="6">
         <v>1000</v>
@@ -5216,19 +5213,19 @@
     <row r="7" spans="1:14" ht="13.5">
       <c r="A7" s="13"/>
       <c r="B7" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I7" s="11">
         <v>1</v>
       </c>
       <c r="L7" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="N7" s="6">
         <v>1000</v>
@@ -5237,25 +5234,25 @@
     <row r="8" spans="1:14" ht="13.5">
       <c r="A8" s="13"/>
       <c r="B8" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I8" s="11">
         <v>2.2201</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N8" s="6">
         <v>1.05555</v>
@@ -5264,25 +5261,25 @@
     <row r="9" spans="1:14" ht="13.5">
       <c r="A9" s="13"/>
       <c r="B9" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I9" s="11">
         <v>2.1427</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N9" s="6">
         <v>4.1868000000000002E-2</v>
@@ -5291,25 +5288,25 @@
     <row r="10" spans="1:14" ht="13.5">
       <c r="A10" s="13"/>
       <c r="B10" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I10" s="11">
         <v>2.077</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N10" s="6">
         <v>41.868000000000002</v>
@@ -5318,25 +5315,25 @@
     <row r="11" spans="1:14" ht="13.5">
       <c r="A11" s="13"/>
       <c r="B11" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I11" s="11">
         <v>2.0358000000000001</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N11" s="6">
         <v>3.5999999999999999E-3</v>
@@ -5345,25 +5342,25 @@
     <row r="12" spans="1:14" ht="13.5">
       <c r="A12" s="13"/>
       <c r="B12" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I12" s="11">
         <v>1.9870000000000001</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N12" s="6">
         <v>1000000</v>
@@ -5372,25 +5369,25 @@
     <row r="13" spans="1:14" ht="13.5">
       <c r="A13" s="13"/>
       <c r="B13" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I13" s="11">
         <v>1.9192</v>
       </c>
       <c r="L13" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M13" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="N13" s="6">
         <v>1000</v>
@@ -5399,25 +5396,25 @@
     <row r="14" spans="1:14" ht="13.5">
       <c r="A14" s="13"/>
       <c r="B14" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I14" s="11">
         <v>1.8468</v>
       </c>
       <c r="L14" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="M14" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>109</v>
       </c>
       <c r="N14" s="6">
         <v>5.8615199999999996</v>
@@ -5426,25 +5423,25 @@
     <row r="15" spans="1:14" ht="13.5">
       <c r="A15" s="13"/>
       <c r="B15" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I15" s="11">
         <v>1.7799</v>
       </c>
       <c r="L15" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="M15" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>112</v>
       </c>
       <c r="N15" s="6">
         <v>1E-3</v>
@@ -5453,25 +5450,25 @@
     <row r="16" spans="1:14" ht="13.5">
       <c r="A16" s="13"/>
       <c r="B16" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I16" s="11">
         <v>1.722</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N16" s="6">
         <v>1000</v>
@@ -5480,25 +5477,25 @@
     <row r="17" spans="1:14" ht="13.5">
       <c r="A17" s="13"/>
       <c r="B17" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I17" s="11">
         <v>1.6836</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N17" s="6">
         <v>37.68</v>
@@ -5506,25 +5503,25 @@
     </row>
     <row r="18" spans="1:14" ht="13.5">
       <c r="B18" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I18" s="11">
         <v>1.6446000000000001</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N18" s="6">
         <v>2139.4548</v>
@@ -5532,25 +5529,25 @@
     </row>
     <row r="19" spans="1:14" ht="13.5">
       <c r="B19" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I19" s="11">
         <v>1.6102000000000001</v>
       </c>
       <c r="L19" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="M19" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="N19" s="6">
         <v>2.78</v>
@@ -5558,25 +5555,25 @@
     </row>
     <row r="20" spans="1:14" ht="13.5">
       <c r="B20" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I20" s="11">
         <v>1.5770999999999999</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N20" s="6">
         <v>3.6</v>
@@ -5584,25 +5581,25 @@
     </row>
     <row r="21" spans="1:14" ht="13.5">
       <c r="B21" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I21" s="11">
         <v>1.5488</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N21" s="6">
         <v>1</v>
@@ -5610,25 +5607,25 @@
     </row>
     <row r="22" spans="1:14" ht="13.5">
       <c r="B22" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I22" s="11">
         <v>1.5224</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N22" s="6">
         <v>31.536000000000001</v>
@@ -5636,25 +5633,25 @@
     </row>
     <row r="23" spans="1:14" ht="13.5">
       <c r="B23" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I23" s="11">
         <v>1.5058</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N23" s="6">
         <v>120</v>
@@ -5662,25 +5659,25 @@
     </row>
     <row r="24" spans="1:14" ht="13.5">
       <c r="B24" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I24" s="11">
         <v>1.4844999999999999</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N24" s="11">
         <v>5.8615199999999996</v>
@@ -5688,25 +5685,25 @@
     </row>
     <row r="25" spans="1:14" ht="13.5">
       <c r="B25" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I25" s="11">
         <v>1.4518</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N25" s="11">
         <v>54</v>
@@ -5714,16 +5711,16 @@
     </row>
     <row r="26" spans="1:14" ht="13.5">
       <c r="B26" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I26" s="11">
         <v>1.4198999999999999</v>
@@ -5731,16 +5728,16 @@
     </row>
     <row r="27" spans="1:14" ht="13.5">
       <c r="B27" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I27" s="11">
         <v>1.3986000000000001</v>
@@ -5748,16 +5745,16 @@
     </row>
     <row r="28" spans="1:14" ht="13.5">
       <c r="B28" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I28" s="11">
         <v>1.3727</v>
@@ -5765,16 +5762,16 @@
     </row>
     <row r="29" spans="1:14" ht="13.5">
       <c r="B29" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I29" s="11">
         <v>1.3369</v>
@@ -5782,16 +5779,16 @@
     </row>
     <row r="30" spans="1:14" ht="13.5">
       <c r="B30" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I30" s="11">
         <v>1.2967</v>
@@ -5799,16 +5796,16 @@
     </row>
     <row r="31" spans="1:14" ht="13.5">
       <c r="B31" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I31" s="11">
         <v>1.2583</v>
@@ -5816,16 +5813,16 @@
     </row>
     <row r="32" spans="1:14" ht="13.5">
       <c r="B32" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I32" s="11">
         <v>1.2253000000000001</v>
@@ -5833,16 +5830,16 @@
     </row>
     <row r="33" spans="2:9" ht="13.5">
       <c r="B33" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I33" s="11">
         <v>1.2023999999999999</v>
@@ -5850,16 +5847,16 @@
     </row>
     <row r="34" spans="2:9" ht="13.5">
       <c r="B34" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I34" s="11">
         <v>1.1931</v>
@@ -5867,16 +5864,16 @@
     </row>
     <row r="35" spans="2:9" ht="13.5">
       <c r="B35" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I35" s="11">
         <v>1.1793</v>
@@ -5884,16 +5881,16 @@
     </row>
     <row r="36" spans="2:9" ht="13.5">
       <c r="B36" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I36" s="11">
         <v>1.1552</v>
@@ -5901,16 +5898,16 @@
     </row>
     <row r="37" spans="2:9" ht="13.5">
       <c r="B37" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I37" s="11">
         <v>1.1334</v>
@@ -5918,16 +5915,16 @@
     </row>
     <row r="38" spans="2:9" ht="13.5">
       <c r="B38" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I38" s="11">
         <v>1.1136999999999999</v>
@@ -5935,16 +5932,16 @@
     </row>
     <row r="39" spans="2:9" ht="13.5">
       <c r="B39" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I39" s="11">
         <v>1.0934999999999999</v>
@@ -5952,16 +5949,16 @@
     </row>
     <row r="40" spans="2:9" ht="13.5">
       <c r="B40" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I40" s="11">
         <v>1.0831</v>
@@ -5969,16 +5966,16 @@
     </row>
     <row r="41" spans="2:9" ht="13.5">
       <c r="B41" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I41" s="11">
         <v>1.0719000000000001</v>
@@ -5986,16 +5983,16 @@
     </row>
     <row r="42" spans="2:9" ht="13.5">
       <c r="B42" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I42" s="11">
         <v>1.0519000000000001</v>
@@ -6003,16 +6000,16 @@
     </row>
     <row r="43" spans="2:9" ht="13.5">
       <c r="B43" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I43" s="11">
         <v>1.0274000000000001</v>
@@ -6020,16 +6017,16 @@
     </row>
     <row r="44" spans="2:9" ht="13.5">
       <c r="B44" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I44" s="11">
         <v>1.0091000000000001</v>
@@ -6037,16 +6034,16 @@
     </row>
     <row r="45" spans="2:9" ht="13.5">
       <c r="B45" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I45" s="11">
         <v>1</v>
@@ -6054,16 +6051,16 @@
     </row>
     <row r="46" spans="2:9" ht="13.5">
       <c r="B46" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I46" s="11">
         <v>0.98960000000000004</v>
@@ -6071,16 +6068,16 @@
     </row>
     <row r="47" spans="2:9" ht="13.5">
       <c r="B47" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I47" s="11">
         <v>0.97809999999999997</v>
@@ -6088,16 +6085,16 @@
     </row>
     <row r="48" spans="2:9" ht="13.5">
       <c r="B48" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I48" s="11">
         <v>0.96499999999999997</v>
@@ -6105,16 +6102,16 @@
     </row>
     <row r="49" spans="2:9" ht="13.5">
       <c r="B49" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I49" s="11">
         <v>0.94910000000000005</v>
@@ -6122,16 +6119,16 @@
     </row>
     <row r="50" spans="2:9" ht="13.5">
       <c r="B50" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I50" s="11">
         <v>0.92969999999999997</v>
@@ -6139,7 +6136,7 @@
     </row>
     <row r="51" spans="2:9" ht="13.5">
       <c r="B51" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F51" s="11" t="str">
         <f>F46</f>
@@ -6150,7 +6147,7 @@
         <v>USD20</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I51" s="11">
         <f t="shared" si="0"/>
@@ -6159,13 +6156,13 @@
     </row>
     <row r="52" spans="2:9" ht="13.5">
       <c r="B52" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I52" s="11">
         <v>7.0000000000000007E-2</v>
@@ -6173,13 +6170,13 @@
     </row>
     <row r="53" spans="2:9" ht="13.5">
       <c r="B53" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I53" s="11">
         <v>7.0000000000000007E-2</v>
@@ -6187,13 +6184,13 @@
     </row>
     <row r="54" spans="2:9" ht="13.5">
       <c r="B54" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I54" s="11">
         <v>7.0000000000000007E-2</v>
@@ -6201,10 +6198,10 @@
     </row>
     <row r="55" spans="2:9">
       <c r="F55" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I55" s="11">
         <v>7.0000000000000007E-2</v>
@@ -6212,10 +6209,10 @@
     </row>
     <row r="56" spans="2:9">
       <c r="F56" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I56" s="11">
         <v>7.0000000000000007E-2</v>
@@ -6223,10 +6220,10 @@
     </row>
     <row r="57" spans="2:9">
       <c r="F57" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I57" s="11">
         <v>7.0000000000000007E-2</v>
@@ -6234,10 +6231,10 @@
     </row>
     <row r="58" spans="2:9">
       <c r="F58" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I58" s="11">
         <v>7.0000000000000007E-2</v>
@@ -6245,10 +6242,10 @@
     </row>
     <row r="59" spans="2:9">
       <c r="F59" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I59" s="11">
         <v>7.0000000000000007E-2</v>
@@ -6256,10 +6253,10 @@
     </row>
     <row r="60" spans="2:9">
       <c r="F60" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I60" s="11">
         <v>7.0000000000000007E-2</v>
@@ -6267,10 +6264,10 @@
     </row>
     <row r="61" spans="2:9">
       <c r="F61" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I61" s="11">
         <v>7.0000000000000007E-2</v>
@@ -6278,10 +6275,10 @@
     </row>
     <row r="62" spans="2:9">
       <c r="F62" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I62" s="11">
         <v>7.0000000000000007E-2</v>
@@ -6289,10 +6286,10 @@
     </row>
     <row r="63" spans="2:9">
       <c r="F63" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I63" s="11">
         <v>7.0000000000000007E-2</v>
@@ -6300,10 +6297,10 @@
     </row>
     <row r="64" spans="2:9">
       <c r="F64" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I64" s="11">
         <v>7.0000000000000007E-2</v>
@@ -6311,10 +6308,10 @@
     </row>
     <row r="65" spans="6:9">
       <c r="F65" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I65" s="11">
         <v>7.0000000000000007E-2</v>
@@ -6322,10 +6319,10 @@
     </row>
     <row r="66" spans="6:9">
       <c r="F66" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I66" s="11">
         <v>7.0000000000000007E-2</v>
@@ -6333,10 +6330,10 @@
     </row>
     <row r="67" spans="6:9">
       <c r="F67" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I67" s="11">
         <v>7.0000000000000007E-2</v>
@@ -6344,10 +6341,10 @@
     </row>
     <row r="68" spans="6:9">
       <c r="F68" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I68" s="11">
         <v>7.0000000000000007E-2</v>
@@ -6355,10 +6352,10 @@
     </row>
     <row r="69" spans="6:9">
       <c r="F69" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I69" s="11">
         <v>7.0000000000000007E-2</v>
@@ -6366,10 +6363,10 @@
     </row>
     <row r="70" spans="6:9">
       <c r="F70" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I70" s="11">
         <v>7.0000000000000007E-2</v>
@@ -6377,10 +6374,10 @@
     </row>
     <row r="71" spans="6:9">
       <c r="F71" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I71" s="11">
         <v>7.0000000000000007E-2</v>
@@ -6388,10 +6385,10 @@
     </row>
     <row r="72" spans="6:9">
       <c r="F72" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I72" s="11">
         <v>7.0000000000000007E-2</v>
@@ -6399,10 +6396,10 @@
     </row>
     <row r="73" spans="6:9">
       <c r="F73" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I73" s="11">
         <v>7.0000000000000007E-2</v>
@@ -6410,10 +6407,10 @@
     </row>
     <row r="74" spans="6:9">
       <c r="F74" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I74" s="11">
         <v>7.0000000000000007E-2</v>
@@ -6421,10 +6418,10 @@
     </row>
     <row r="75" spans="6:9">
       <c r="F75" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I75" s="11">
         <v>7.0000000000000007E-2</v>
@@ -6432,10 +6429,10 @@
     </row>
     <row r="76" spans="6:9">
       <c r="F76" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I76" s="11">
         <v>7.0000000000000007E-2</v>
@@ -6443,10 +6440,10 @@
     </row>
     <row r="77" spans="6:9">
       <c r="F77" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I77" s="11">
         <v>7.0000000000000007E-2</v>
@@ -6454,10 +6451,10 @@
     </row>
     <row r="78" spans="6:9">
       <c r="F78" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I78" s="11">
         <v>7.0000000000000007E-2</v>
@@ -6465,10 +6462,10 @@
     </row>
     <row r="79" spans="6:9">
       <c r="F79" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I79" s="11">
         <v>7.0000000000000007E-2</v>
@@ -6476,10 +6473,10 @@
     </row>
     <row r="80" spans="6:9">
       <c r="F80" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I80" s="11">
         <v>7.0000000000000007E-2</v>
@@ -6487,10 +6484,10 @@
     </row>
     <row r="81" spans="6:9">
       <c r="F81" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I81" s="11">
         <v>7.0000000000000007E-2</v>
@@ -6498,10 +6495,10 @@
     </row>
     <row r="82" spans="6:9">
       <c r="F82" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I82" s="11">
         <v>7.0000000000000007E-2</v>
@@ -6509,10 +6506,10 @@
     </row>
     <row r="83" spans="6:9">
       <c r="F83" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I83" s="11">
         <v>7.0000000000000007E-2</v>
@@ -6520,10 +6517,10 @@
     </row>
     <row r="84" spans="6:9">
       <c r="F84" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I84" s="11">
         <v>7.0000000000000007E-2</v>
@@ -6531,10 +6528,10 @@
     </row>
     <row r="85" spans="6:9">
       <c r="F85" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I85" s="11">
         <v>7.0000000000000007E-2</v>
@@ -6542,10 +6539,10 @@
     </row>
     <row r="86" spans="6:9">
       <c r="F86" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I86" s="11">
         <v>7.0000000000000007E-2</v>
@@ -6553,10 +6550,10 @@
     </row>
     <row r="87" spans="6:9">
       <c r="F87" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I87" s="11">
         <v>7.0000000000000007E-2</v>
@@ -6564,10 +6561,10 @@
     </row>
     <row r="88" spans="6:9">
       <c r="F88" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I88" s="11">
         <v>7.0000000000000007E-2</v>
@@ -6575,10 +6572,10 @@
     </row>
     <row r="89" spans="6:9">
       <c r="F89" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I89" s="11">
         <v>7.0000000000000007E-2</v>
@@ -6586,10 +6583,10 @@
     </row>
     <row r="90" spans="6:9">
       <c r="F90" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I90" s="11">
         <v>7.0000000000000007E-2</v>
@@ -6597,10 +6594,10 @@
     </row>
     <row r="91" spans="6:9">
       <c r="F91" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I91" s="11">
         <v>7.0000000000000007E-2</v>
@@ -6608,10 +6605,10 @@
     </row>
     <row r="92" spans="6:9">
       <c r="F92" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I92" s="11">
         <v>7.0000000000000007E-2</v>
@@ -6619,10 +6616,10 @@
     </row>
     <row r="93" spans="6:9">
       <c r="F93" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I93" s="11">
         <v>7.0000000000000007E-2</v>
@@ -6630,10 +6627,10 @@
     </row>
     <row r="94" spans="6:9">
       <c r="F94" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I94" s="11">
         <v>7.0000000000000007E-2</v>
@@ -6641,7 +6638,7 @@
     </row>
     <row r="95" spans="6:9">
       <c r="F95" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H95" s="11" t="str">
         <f>H51</f>
@@ -6653,39 +6650,39 @@
     </row>
     <row r="99" spans="5:10" ht="18" thickBot="1">
       <c r="E99" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="100" spans="5:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="E100" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I100" s="4">
         <v>2022</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="101" spans="5:10" ht="15">
       <c r="E101"/>
       <c r="F101" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G101" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H101" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I101" s="22">
         <f>1.10926234054354*I40</f>
@@ -6695,11 +6692,11 @@
     <row r="102" spans="5:10" ht="15">
       <c r="E102"/>
       <c r="F102" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G102"/>
       <c r="H102" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I102" s="22">
         <f>I84</f>
@@ -6727,26 +6724,26 @@
   <sheetData>
     <row r="3" spans="2:4" ht="18" thickBot="1">
       <c r="B3" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="16.5" thickTop="1" thickBot="1">
       <c r="B4" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>155</v>
       </c>
       <c r="D5" s="6">
         <v>-1</v>
@@ -6754,10 +6751,10 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
@@ -6765,10 +6762,10 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
@@ -6776,10 +6773,10 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
@@ -6787,10 +6784,10 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D9" s="6">
         <v>1</v>
@@ -6798,10 +6795,10 @@
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D10" s="6">
         <v>1</v>
@@ -6809,10 +6806,10 @@
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
@@ -6820,10 +6817,10 @@
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D12" s="6">
         <v>1</v>
@@ -6831,10 +6828,10 @@
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D13" s="6">
         <v>1</v>
@@ -6842,10 +6839,10 @@
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D14" s="6">
         <v>2</v>
@@ -6853,10 +6850,10 @@
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D15" s="6">
         <v>1</v>
@@ -6864,10 +6861,10 @@
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D16" s="16">
         <v>1.0000000000000001E-5</v>
@@ -6875,10 +6872,10 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D17" s="16">
         <v>1.0000000000000001E-5</v>
@@ -6886,10 +6883,10 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D18" s="16">
         <v>1.0000000000000001E-5</v>
@@ -6897,10 +6894,10 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D19" s="16">
         <v>1.0000000000000001E-5</v>
@@ -6908,10 +6905,10 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>170</v>
       </c>
       <c r="D20" s="17">
         <v>1</v>
@@ -6919,73 +6916,73 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="18" thickBot="1">
       <c r="B25" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="16.5" thickTop="1" thickBot="1">
       <c r="B26" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_EST/SysSettings.xlsx
+++ b/VerveStacks_EST/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\PycharmProjects\ee-times\VerveStacks_EST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C119179-C452-4E45-90CF-4759188E33B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F220820C-0801-48CB-8BB0-795848D06F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10470" yWindow="10890" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="277">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -866,6 +866,9 @@
   </si>
   <si>
     <t>msy7_2050</t>
+  </si>
+  <si>
+    <t>PDef1</t>
   </si>
 </sst>
 </file>
@@ -4200,7 +4203,7 @@
   <dimension ref="B3:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4244,7 +4247,7 @@
     </row>
     <row r="12" spans="2:7" ht="15">
       <c r="B12" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>44</v>
